--- a/SchedulingData/dynamic13/pso/scheduling1_16.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling1_16.xlsx
@@ -462,97 +462,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>85.04000000000001</v>
+        <v>42.2</v>
       </c>
       <c r="E2" t="n">
-        <v>26.136</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>42.2</v>
       </c>
       <c r="D3" t="n">
-        <v>51.56</v>
+        <v>136.6</v>
       </c>
       <c r="E3" t="n">
-        <v>27.504</v>
+        <v>23.12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>57.2</v>
+        <v>44.8</v>
       </c>
       <c r="E4" t="n">
-        <v>26.48</v>
+        <v>26.22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>44.8</v>
       </c>
       <c r="D5" t="n">
-        <v>59.88</v>
+        <v>121.8</v>
       </c>
       <c r="E5" t="n">
-        <v>27.192</v>
+        <v>22.14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>85.04000000000001</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>139.84</v>
+        <v>52.94</v>
       </c>
       <c r="E6" t="n">
-        <v>22.296</v>
+        <v>26.876</v>
       </c>
     </row>
     <row r="7">
@@ -561,112 +561,112 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>59.88</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>104.78</v>
+        <v>47.3</v>
       </c>
       <c r="E7" t="n">
-        <v>24.332</v>
+        <v>26.96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>75.78</v>
+        <v>76.66</v>
       </c>
       <c r="E8" t="n">
-        <v>26.592</v>
+        <v>26.464</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>76.66</v>
       </c>
       <c r="D9" t="n">
-        <v>52.3</v>
+        <v>146.66</v>
       </c>
       <c r="E9" t="n">
-        <v>26.96</v>
+        <v>21.604</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>52.3</v>
+        <v>146.66</v>
       </c>
       <c r="D10" t="n">
-        <v>100.32</v>
+        <v>191.66</v>
       </c>
       <c r="E10" t="n">
-        <v>23.788</v>
+        <v>18.724</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>100.32</v>
+        <v>121.8</v>
       </c>
       <c r="D11" t="n">
-        <v>189.62</v>
+        <v>186.2</v>
       </c>
       <c r="E11" t="n">
-        <v>18.928</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>57.2</v>
+        <v>136.6</v>
       </c>
       <c r="D12" t="n">
-        <v>126.8</v>
+        <v>196.64</v>
       </c>
       <c r="E12" t="n">
-        <v>23.1</v>
+        <v>19.256</v>
       </c>
     </row>
     <row r="13">
@@ -675,17 +675,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>189.62</v>
+        <v>196.64</v>
       </c>
       <c r="D13" t="n">
-        <v>234.62</v>
+        <v>236.84</v>
       </c>
       <c r="E13" t="n">
-        <v>16.048</v>
+        <v>15.876</v>
       </c>
     </row>
     <row r="14">
@@ -694,22 +694,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>104.78</v>
+        <v>47.3</v>
       </c>
       <c r="D14" t="n">
-        <v>169.04</v>
+        <v>95.31999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>21.516</v>
+        <v>23.788</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -717,151 +717,151 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>51.56</v>
+        <v>186.2</v>
       </c>
       <c r="D15" t="n">
-        <v>104.72</v>
+        <v>229.56</v>
       </c>
       <c r="E15" t="n">
-        <v>23.808</v>
+        <v>14.604</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>139.84</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>189.78</v>
+        <v>69.3</v>
       </c>
       <c r="E16" t="n">
-        <v>18.432</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>169.04</v>
+        <v>191.66</v>
       </c>
       <c r="D17" t="n">
-        <v>215.7</v>
+        <v>256.7</v>
       </c>
       <c r="E17" t="n">
-        <v>17.98</v>
+        <v>14.86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>189.78</v>
+        <v>69.3</v>
       </c>
       <c r="D18" t="n">
-        <v>251.68</v>
+        <v>125.26</v>
       </c>
       <c r="E18" t="n">
-        <v>14.352</v>
+        <v>23.724</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>75.78</v>
+        <v>236.84</v>
       </c>
       <c r="D19" t="n">
-        <v>153.38</v>
+        <v>289.96</v>
       </c>
       <c r="E19" t="n">
-        <v>22.432</v>
+        <v>12.184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>104.72</v>
+        <v>52.94</v>
       </c>
       <c r="D20" t="n">
-        <v>149.02</v>
+        <v>106.46</v>
       </c>
       <c r="E20" t="n">
-        <v>21.008</v>
+        <v>22.664</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>126.8</v>
+        <v>289.96</v>
       </c>
       <c r="D21" t="n">
-        <v>191.82</v>
+        <v>334.54</v>
       </c>
       <c r="E21" t="n">
-        <v>20.188</v>
+        <v>8.856</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>149.02</v>
+        <v>229.56</v>
       </c>
       <c r="D22" t="n">
-        <v>196.58</v>
+        <v>290.92</v>
       </c>
       <c r="E22" t="n">
-        <v>17.872</v>
+        <v>11.068</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>215.7</v>
+        <v>106.46</v>
       </c>
       <c r="D23" t="n">
-        <v>258.78</v>
+        <v>169.14</v>
       </c>
       <c r="E23" t="n">
-        <v>14.812</v>
+        <v>19.496</v>
       </c>
     </row>
     <row r="24">
@@ -884,131 +884,131 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>196.58</v>
+        <v>125.26</v>
       </c>
       <c r="D24" t="n">
-        <v>248.38</v>
+        <v>191.02</v>
       </c>
       <c r="E24" t="n">
-        <v>14.332</v>
+        <v>19.748</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>234.62</v>
+        <v>95.31999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>297.88</v>
+        <v>182.62</v>
       </c>
       <c r="E25" t="n">
-        <v>12.352</v>
+        <v>19.628</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>258.78</v>
+        <v>334.54</v>
       </c>
       <c r="D26" t="n">
-        <v>314.74</v>
+        <v>383.72</v>
       </c>
       <c r="E26" t="n">
-        <v>11.336</v>
+        <v>6.048</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>191.82</v>
+        <v>191.02</v>
       </c>
       <c r="D27" t="n">
-        <v>268.42</v>
+        <v>251.54</v>
       </c>
       <c r="E27" t="n">
-        <v>16.168</v>
+        <v>16.836</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>153.38</v>
+        <v>383.72</v>
       </c>
       <c r="D28" t="n">
-        <v>200.78</v>
+        <v>428.62</v>
       </c>
       <c r="E28" t="n">
-        <v>18.832</v>
+        <v>3.188</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>297.88</v>
+        <v>182.62</v>
       </c>
       <c r="D29" t="n">
-        <v>336.18</v>
+        <v>233.68</v>
       </c>
       <c r="E29" t="n">
-        <v>10.152</v>
+        <v>17.132</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>248.38</v>
+        <v>256.7</v>
       </c>
       <c r="D30" t="n">
-        <v>304.84</v>
+        <v>321.6</v>
       </c>
       <c r="E30" t="n">
-        <v>10.796</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -1017,36 +1017,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>200.78</v>
+        <v>169.14</v>
       </c>
       <c r="D31" t="n">
-        <v>268.9</v>
+        <v>231.7</v>
       </c>
       <c r="E31" t="n">
-        <v>14.62</v>
+        <v>16.36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>268.42</v>
+        <v>233.68</v>
       </c>
       <c r="D32" t="n">
-        <v>332.92</v>
+        <v>274.62</v>
       </c>
       <c r="E32" t="n">
-        <v>12.808</v>
+        <v>14.168</v>
       </c>
     </row>
     <row r="33">
@@ -1055,36 +1055,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>332.92</v>
+        <v>321.6</v>
       </c>
       <c r="D33" t="n">
-        <v>407.72</v>
+        <v>380.96</v>
       </c>
       <c r="E33" t="n">
-        <v>9.948</v>
+        <v>9.183999999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>336.18</v>
+        <v>274.62</v>
       </c>
       <c r="D34" t="n">
-        <v>414.88</v>
+        <v>315.1</v>
       </c>
       <c r="E34" t="n">
-        <v>6.372</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="35">
@@ -1093,36 +1093,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>251.68</v>
+        <v>290.92</v>
       </c>
       <c r="D35" t="n">
-        <v>299.22</v>
+        <v>326.62</v>
       </c>
       <c r="E35" t="n">
-        <v>11.228</v>
+        <v>8.628</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>304.84</v>
+        <v>315.1</v>
       </c>
       <c r="D36" t="n">
-        <v>340.54</v>
+        <v>391.98</v>
       </c>
       <c r="E36" t="n">
-        <v>8.356</v>
+        <v>7.692</v>
       </c>
     </row>
     <row r="37">
@@ -1131,55 +1131,55 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>299.22</v>
+        <v>326.62</v>
       </c>
       <c r="D37" t="n">
-        <v>348.7</v>
+        <v>374.62</v>
       </c>
       <c r="E37" t="n">
-        <v>7.9</v>
+        <v>6.428</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>348.7</v>
+        <v>231.7</v>
       </c>
       <c r="D38" t="n">
-        <v>396.92</v>
+        <v>284.96</v>
       </c>
       <c r="E38" t="n">
-        <v>4.208</v>
+        <v>12.664</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>340.54</v>
+        <v>284.96</v>
       </c>
       <c r="D39" t="n">
-        <v>396.38</v>
+        <v>351.26</v>
       </c>
       <c r="E39" t="n">
-        <v>5.392</v>
+        <v>8.644</v>
       </c>
     </row>
     <row r="40">
@@ -1188,36 +1188,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>268.9</v>
+        <v>351.26</v>
       </c>
       <c r="D40" t="n">
-        <v>324.86</v>
+        <v>423.06</v>
       </c>
       <c r="E40" t="n">
-        <v>10.644</v>
+        <v>5.044</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>324.86</v>
+        <v>374.62</v>
       </c>
       <c r="D41" t="n">
-        <v>406.54</v>
+        <v>416.42</v>
       </c>
       <c r="E41" t="n">
-        <v>7.576</v>
+        <v>2.888</v>
       </c>
     </row>
   </sheetData>
